--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cxcl12-Cd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Cd4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H2">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J2">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>7.00189393751713</v>
+        <v>0.9211239999999999</v>
       </c>
       <c r="N2">
-        <v>7.00189393751713</v>
+        <v>2.763372</v>
       </c>
       <c r="O2">
-        <v>0.9524196981155163</v>
+        <v>0.08178337750955046</v>
       </c>
       <c r="P2">
-        <v>0.9524196981155163</v>
+        <v>0.08178337750955048</v>
       </c>
       <c r="Q2">
-        <v>1141.086304265125</v>
+        <v>154.664287554784</v>
       </c>
       <c r="R2">
-        <v>1141.086304265125</v>
+        <v>1391.978587993056</v>
       </c>
       <c r="S2">
-        <v>0.4188435062023128</v>
+        <v>0.03573480543478345</v>
       </c>
       <c r="T2">
-        <v>0.4188435062023128</v>
+        <v>0.03573480543478347</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,309 +587,1487 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.968236086957</v>
+        <v>167.908216</v>
       </c>
       <c r="H3">
-        <v>162.968236086957</v>
+        <v>503.724648</v>
       </c>
       <c r="I3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J3">
-        <v>0.4397677904300468</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.349795607933546</v>
+        <v>7.177985</v>
       </c>
       <c r="N3">
-        <v>0.349795607933546</v>
+        <v>21.533955</v>
       </c>
       <c r="O3">
-        <v>0.04758030188448372</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="P3">
-        <v>0.04758030188448372</v>
+        <v>0.6373081767632703</v>
       </c>
       <c r="Q3">
-        <v>57.00557321589478</v>
+        <v>1205.24265582476</v>
       </c>
       <c r="R3">
-        <v>57.00557321589478</v>
+        <v>10847.18390242284</v>
       </c>
       <c r="S3">
-        <v>0.020924284227734</v>
+        <v>0.2784683684159724</v>
       </c>
       <c r="T3">
-        <v>0.020924284227734</v>
+        <v>0.2784683684159724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>203.106970240312</v>
+        <v>167.908216</v>
       </c>
       <c r="H4">
-        <v>203.106970240312</v>
+        <v>503.724648</v>
       </c>
       <c r="I4">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J4">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.00189393751713</v>
+        <v>0.370797</v>
       </c>
       <c r="N4">
-        <v>7.00189393751713</v>
+        <v>1.112391</v>
       </c>
       <c r="O4">
-        <v>0.9524196981155163</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="P4">
-        <v>0.9524196981155163</v>
+        <v>0.03292176843770089</v>
       </c>
       <c r="Q4">
-        <v>1422.133463593113</v>
+        <v>62.25986276815201</v>
       </c>
       <c r="R4">
-        <v>1422.133463593113</v>
+        <v>560.3387649133681</v>
       </c>
       <c r="S4">
-        <v>0.5220037817933378</v>
+        <v>0.01438498904686167</v>
       </c>
       <c r="T4">
-        <v>0.5220037817933378</v>
+        <v>0.01438498904686167</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>203.106970240312</v>
+        <v>167.908216</v>
       </c>
       <c r="H5">
-        <v>203.106970240312</v>
+        <v>503.724648</v>
       </c>
       <c r="I5">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J5">
-        <v>0.5480816732646215</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.349795607933546</v>
+        <v>2.512708666666667</v>
       </c>
       <c r="N5">
-        <v>0.349795607933546</v>
+        <v>7.538126</v>
       </c>
       <c r="O5">
-        <v>0.04758030188448372</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="P5">
-        <v>0.04758030188448372</v>
+        <v>0.2230946120799363</v>
       </c>
       <c r="Q5">
-        <v>71.04592613075057</v>
+        <v>421.9044295477387</v>
       </c>
       <c r="R5">
-        <v>71.04592613075057</v>
+        <v>3797.139865929648</v>
       </c>
       <c r="S5">
-        <v>0.02607789147128366</v>
+        <v>0.09747998675273634</v>
       </c>
       <c r="T5">
-        <v>0.02607789147128366</v>
+        <v>0.09747998675273636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.50272055453184</v>
+        <v>167.908216</v>
       </c>
       <c r="H6">
-        <v>4.50272055453184</v>
+        <v>503.724648</v>
       </c>
       <c r="I6">
-        <v>0.0121505363053316</v>
+        <v>0.4369446032063231</v>
       </c>
       <c r="J6">
-        <v>0.0121505363053316</v>
+        <v>0.4369446032063232</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>7.00189393751713</v>
+        <v>0.2803586666666666</v>
       </c>
       <c r="N6">
-        <v>7.00189393751713</v>
+        <v>0.8410759999999999</v>
       </c>
       <c r="O6">
-        <v>0.9524196981155163</v>
+        <v>0.02489206520954206</v>
       </c>
       <c r="P6">
-        <v>0.9524196981155163</v>
+        <v>0.02489206520954206</v>
       </c>
       <c r="Q6">
-        <v>31.52757175311026</v>
+        <v>47.07452356013867</v>
       </c>
       <c r="R6">
-        <v>31.52757175311026</v>
+        <v>423.670712041248</v>
       </c>
       <c r="S6">
-        <v>0.01157241011986554</v>
+        <v>0.01087645355596928</v>
       </c>
       <c r="T6">
-        <v>0.01157241011986554</v>
+        <v>0.01087645355596928</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>210.785085</v>
+      </c>
+      <c r="H7">
+        <v>632.3552549999999</v>
+      </c>
+      <c r="I7">
+        <v>0.5485223267879642</v>
+      </c>
+      <c r="J7">
+        <v>0.5485223267879643</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N7">
+        <v>2.763372</v>
+      </c>
+      <c r="O7">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P7">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q7">
+        <v>194.15920063554</v>
+      </c>
+      <c r="R7">
+        <v>1747.43280571986</v>
+      </c>
+      <c r="S7">
+        <v>0.04486000852411708</v>
+      </c>
+      <c r="T7">
+        <v>0.0448600085241171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>210.785085</v>
+      </c>
+      <c r="H8">
+        <v>632.3552549999999</v>
+      </c>
+      <c r="I8">
+        <v>0.5485223267879642</v>
+      </c>
+      <c r="J8">
+        <v>0.5485223267879643</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>7.177985</v>
+      </c>
+      <c r="N8">
+        <v>21.533955</v>
+      </c>
+      <c r="O8">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P8">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q8">
+        <v>1513.012178353725</v>
+      </c>
+      <c r="R8">
+        <v>13617.10960518352</v>
+      </c>
+      <c r="S8">
+        <v>0.3495777639991842</v>
+      </c>
+      <c r="T8">
+        <v>0.3495777639991843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>210.785085</v>
+      </c>
+      <c r="H9">
+        <v>632.3552549999999</v>
+      </c>
+      <c r="I9">
+        <v>0.5485223267879642</v>
+      </c>
+      <c r="J9">
+        <v>0.5485223267879643</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.370797</v>
+      </c>
+      <c r="N9">
+        <v>1.112391</v>
+      </c>
+      <c r="O9">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P9">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q9">
+        <v>78.158477162745</v>
+      </c>
+      <c r="R9">
+        <v>703.4262944647051</v>
+      </c>
+      <c r="S9">
+        <v>0.01805832502542225</v>
+      </c>
+      <c r="T9">
+        <v>0.01805832502542225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>210.785085</v>
+      </c>
+      <c r="H10">
+        <v>632.3552549999999</v>
+      </c>
+      <c r="I10">
+        <v>0.5485223267879642</v>
+      </c>
+      <c r="J10">
+        <v>0.5485223267879643</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N10">
+        <v>7.538126</v>
+      </c>
+      <c r="O10">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P10">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q10">
+        <v>529.6415098835699</v>
+      </c>
+      <c r="R10">
+        <v>4766.77358895213</v>
+      </c>
+      <c r="S10">
+        <v>0.1223723757119449</v>
+      </c>
+      <c r="T10">
+        <v>0.1223723757119449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="H7">
-        <v>4.50272055453184</v>
-      </c>
-      <c r="I7">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="J7">
-        <v>0.0121505363053316</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.349795607933546</v>
-      </c>
-      <c r="N7">
-        <v>0.349795607933546</v>
-      </c>
-      <c r="O7">
-        <v>0.04758030188448372</v>
-      </c>
-      <c r="P7">
-        <v>0.04758030188448372</v>
-      </c>
-      <c r="Q7">
-        <v>1.575031873727339</v>
-      </c>
-      <c r="R7">
-        <v>1.575031873727339</v>
-      </c>
-      <c r="S7">
-        <v>0.0005781261854660569</v>
-      </c>
-      <c r="T7">
-        <v>0.0005781261854660569</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>210.785085</v>
+      </c>
+      <c r="H11">
+        <v>632.3552549999999</v>
+      </c>
+      <c r="I11">
+        <v>0.5485223267879642</v>
+      </c>
+      <c r="J11">
+        <v>0.5485223267879643</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N11">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P11">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q11">
+        <v>59.09542538381999</v>
+      </c>
+      <c r="R11">
+        <v>531.8588284543799</v>
+      </c>
+      <c r="S11">
+        <v>0.01365385352729575</v>
+      </c>
+      <c r="T11">
+        <v>0.01365385352729575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.047383</v>
+      </c>
+      <c r="H12">
+        <v>0.142149</v>
+      </c>
+      <c r="I12">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J12">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N12">
+        <v>2.763372</v>
+      </c>
+      <c r="O12">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P12">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q12">
+        <v>0.043645618492</v>
+      </c>
+      <c r="R12">
+        <v>0.392810566428</v>
+      </c>
+      <c r="S12">
+        <v>1.008421342476978E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.008421342476979E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.047383</v>
+      </c>
+      <c r="H13">
+        <v>0.142149</v>
+      </c>
+      <c r="I13">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J13">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.177985</v>
+      </c>
+      <c r="N13">
+        <v>21.533955</v>
+      </c>
+      <c r="O13">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P13">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q13">
+        <v>0.340114463255</v>
+      </c>
+      <c r="R13">
+        <v>3.061030169295</v>
+      </c>
+      <c r="S13">
+        <v>7.858261504400725E-05</v>
+      </c>
+      <c r="T13">
+        <v>7.858261504400726E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.047383</v>
+      </c>
+      <c r="H14">
+        <v>0.142149</v>
+      </c>
+      <c r="I14">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J14">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.370797</v>
+      </c>
+      <c r="N14">
+        <v>1.112391</v>
+      </c>
+      <c r="O14">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P14">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q14">
+        <v>0.017569474251</v>
+      </c>
+      <c r="R14">
+        <v>0.158125268259</v>
+      </c>
+      <c r="S14">
+        <v>4.0593840625848E-06</v>
+      </c>
+      <c r="T14">
+        <v>4.059384062584802E-06</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.047383</v>
+      </c>
+      <c r="H15">
+        <v>0.142149</v>
+      </c>
+      <c r="I15">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J15">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N15">
+        <v>7.538126</v>
+      </c>
+      <c r="O15">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P15">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q15">
+        <v>0.1190596747526667</v>
+      </c>
+      <c r="R15">
+        <v>1.071537072774</v>
+      </c>
+      <c r="S15">
+        <v>2.750844671177321E-05</v>
+      </c>
+      <c r="T15">
+        <v>2.750844671177322E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.047383</v>
+      </c>
+      <c r="H16">
+        <v>0.142149</v>
+      </c>
+      <c r="I16">
+        <v>0.0001233039491868891</v>
+      </c>
+      <c r="J16">
+        <v>0.0001233039491868892</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N16">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P16">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q16">
+        <v>0.01328423470266667</v>
+      </c>
+      <c r="R16">
+        <v>0.119558112324</v>
+      </c>
+      <c r="S16">
+        <v>3.069289943754105E-06</v>
+      </c>
+      <c r="T16">
+        <v>3.069289943754106E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.384626</v>
+      </c>
+      <c r="I17">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J17">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N17">
+        <v>2.763372</v>
+      </c>
+      <c r="O17">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P17">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q17">
+        <v>0.1180960798746667</v>
+      </c>
+      <c r="R17">
+        <v>1.062864718872</v>
+      </c>
+      <c r="S17">
+        <v>2.728581047151582E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.728581047151583E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.384626</v>
+      </c>
+      <c r="I18">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J18">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.177985</v>
+      </c>
+      <c r="N18">
+        <v>21.533955</v>
+      </c>
+      <c r="O18">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P18">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q18">
+        <v>0.9202798862033332</v>
+      </c>
+      <c r="R18">
+        <v>8.28251897583</v>
+      </c>
+      <c r="S18">
+        <v>0.0002126284173220799</v>
+      </c>
+      <c r="T18">
+        <v>0.0002126284173220799</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.384626</v>
+      </c>
+      <c r="I19">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J19">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.370797</v>
+      </c>
+      <c r="N19">
+        <v>1.112391</v>
+      </c>
+      <c r="O19">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P19">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q19">
+        <v>0.04753938897400001</v>
+      </c>
+      <c r="R19">
+        <v>0.4278545007660001</v>
+      </c>
+      <c r="S19">
+        <v>1.098385957309402E-05</v>
+      </c>
+      <c r="T19">
+        <v>1.098385957309402E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.384626</v>
+      </c>
+      <c r="I20">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J20">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N20">
+        <v>7.538126</v>
+      </c>
+      <c r="O20">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P20">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q20">
+        <v>0.3221510278751111</v>
+      </c>
+      <c r="R20">
+        <v>2.899359250876</v>
+      </c>
+      <c r="S20">
+        <v>7.443220722595644E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.443220722595645E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1282086666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.384626</v>
+      </c>
+      <c r="I21">
+        <v>0.0003336351628218026</v>
+      </c>
+      <c r="J21">
+        <v>0.0003336351628218027</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P21">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q21">
+        <v>0.03594441084177778</v>
+      </c>
+      <c r="R21">
+        <v>0.323499697576</v>
+      </c>
+      <c r="S21">
+        <v>8.304868229156495E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.304868229156497E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H22">
+        <v>16.227444</v>
+      </c>
+      <c r="I22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J22">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.9211239999999999</v>
+      </c>
+      <c r="N22">
+        <v>2.763372</v>
+      </c>
+      <c r="O22">
+        <v>0.08178337750955046</v>
+      </c>
+      <c r="P22">
+        <v>0.08178337750955048</v>
+      </c>
+      <c r="Q22">
+        <v>4.982496042352</v>
+      </c>
+      <c r="R22">
+        <v>44.84246438116801</v>
+      </c>
+      <c r="S22">
+        <v>0.001151193526753617</v>
+      </c>
+      <c r="T22">
+        <v>0.001151193526753618</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H23">
+        <v>16.227444</v>
+      </c>
+      <c r="I23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J23">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.177985</v>
+      </c>
+      <c r="N23">
+        <v>21.533955</v>
+      </c>
+      <c r="O23">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="P23">
+        <v>0.6373081767632703</v>
+      </c>
+      <c r="Q23">
+        <v>38.82678320678001</v>
+      </c>
+      <c r="R23">
+        <v>349.44104886102</v>
+      </c>
+      <c r="S23">
+        <v>0.008970833315747459</v>
+      </c>
+      <c r="T23">
+        <v>0.00897083331574746</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H24">
+        <v>16.227444</v>
+      </c>
+      <c r="I24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J24">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.370797</v>
+      </c>
+      <c r="N24">
+        <v>1.112391</v>
+      </c>
+      <c r="O24">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="P24">
+        <v>0.03292176843770089</v>
+      </c>
+      <c r="Q24">
+        <v>2.005695850956001</v>
+      </c>
+      <c r="R24">
+        <v>18.051262658604</v>
+      </c>
+      <c r="S24">
+        <v>0.0004634111217812813</v>
+      </c>
+      <c r="T24">
+        <v>0.0004634111217812815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H25">
+        <v>16.227444</v>
+      </c>
+      <c r="I25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J25">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>2.512708666666667</v>
+      </c>
+      <c r="N25">
+        <v>7.538126</v>
+      </c>
+      <c r="O25">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="P25">
+        <v>0.2230946120799363</v>
+      </c>
+      <c r="Q25">
+        <v>13.59161305888267</v>
+      </c>
+      <c r="R25">
+        <v>122.324517529944</v>
+      </c>
+      <c r="S25">
+        <v>0.003140308961317237</v>
+      </c>
+      <c r="T25">
+        <v>0.003140308961317238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>5.409148000000001</v>
+      </c>
+      <c r="H26">
+        <v>16.227444</v>
+      </c>
+      <c r="I26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="J26">
+        <v>0.01407613089370372</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.2803586666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.8410759999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="P26">
+        <v>0.02489206520954206</v>
+      </c>
+      <c r="Q26">
+        <v>1.516501521082667</v>
+      </c>
+      <c r="R26">
+        <v>13.648513689744</v>
+      </c>
+      <c r="S26">
+        <v>0.0003503839681041225</v>
+      </c>
+      <c r="T26">
+        <v>0.0003503839681041226</v>
       </c>
     </row>
   </sheetData>
